--- a/src/main/resources/excel/TestFlow.xlsx
+++ b/src/main/resources/excel/TestFlow.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABC\IdeaProjects\uitesting\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2702F6-C0B6-4C80-8FC4-BA658FCB3EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52B4276-2108-4DF5-8C4F-E964E30B5695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="2550" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1935" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestFlow" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>TestID</t>
   </si>
@@ -45,37 +45,91 @@
     <t>Keyword5</t>
   </si>
   <si>
+    <t>OPEN_BROWSER</t>
+  </si>
+  <si>
+    <t>CLOSE_BROWSER</t>
+  </si>
+  <si>
+    <t>CBP001</t>
+  </si>
+  <si>
+    <t>CBP_LOGIN</t>
+  </si>
+  <si>
+    <t>CBP002</t>
+  </si>
+  <si>
+    <t>CREATE_AND_FILL_1DAY_LOOKOUT</t>
+  </si>
+  <si>
     <t>Keyword6</t>
   </si>
   <si>
-    <t>TC001</t>
-  </si>
-  <si>
-    <t>OPEN_BROWSER</t>
-  </si>
-  <si>
-    <t>NAVIGATE_TO_DICE_LOGIN</t>
-  </si>
-  <si>
-    <t>LOGIN_TO_DICE</t>
-  </si>
-  <si>
-    <t>CLOSE_BROWSER</t>
-  </si>
-  <si>
-    <t>TC002</t>
-  </si>
-  <si>
-    <t>VERIFY_USER_PROFILE</t>
-  </si>
-  <si>
-    <t>TC003</t>
-  </si>
-  <si>
-    <t>SEARCH_JOBS</t>
-  </si>
-  <si>
-    <t>VERIFY_SEARCH_RESULTS</t>
+    <t>Keyword7</t>
+  </si>
+  <si>
+    <t>Keyword8</t>
+  </si>
+  <si>
+    <t>Keyword9</t>
+  </si>
+  <si>
+    <t>Keyword10</t>
+  </si>
+  <si>
+    <t>Keyword11</t>
+  </si>
+  <si>
+    <t>Keyword12</t>
+  </si>
+  <si>
+    <t>Keyword13</t>
+  </si>
+  <si>
+    <t>Keyword14</t>
+  </si>
+  <si>
+    <t>Keyword15</t>
+  </si>
+  <si>
+    <t>CBP_PXS_001</t>
+  </si>
+  <si>
+    <t>NAVIGATE_TO_PERSON_SEARCH</t>
+  </si>
+  <si>
+    <t>SEARCH_PERSON</t>
+  </si>
+  <si>
+    <t>SELECT_PXSEARCH</t>
+  </si>
+  <si>
+    <t>CREATE_UPAX_EVENT_EXISTING</t>
+  </si>
+  <si>
+    <t>SWITCH_TO_NEW_TAB</t>
+  </si>
+  <si>
+    <t>SELECT_EXISTING_EVENT_TAB</t>
+  </si>
+  <si>
+    <t>ENTER_EVENT_NUMBER_AND_SELECT</t>
+  </si>
+  <si>
+    <t>SELECT_NEW_PERSON_TAB</t>
+  </si>
+  <si>
+    <t>SET_PERSON_TYPE_AND_IMPORT</t>
+  </si>
+  <si>
+    <t>SELECT_ASSOCIATED_PERSON</t>
+  </si>
+  <si>
+    <t>VERIFY_SUBJECT</t>
+  </si>
+  <si>
+    <t>DELETE_TRAVELER</t>
   </si>
 </sst>
 </file>
@@ -407,15 +461,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="A5" sqref="A5:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,73 +489,124 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>